--- a/biology/Botanique/Meliceae/Meliceae.xlsx
+++ b/biology/Botanique/Meliceae/Meliceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Meliceae sont une tribu de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, dont le genre-type est Melica Schrank[2].
-Cette tribu comprend six genres regroupant 154 espèces[3].
-Deux genres sont relativement importants, il s'agit de Melica (selon les décomptes de nombreuses flores régionales) avec environ 80 à 90 espèces, et Glyceria avec environ 55 espèces[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Meliceae sont une tribu de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, dont le genre-type est Melica Schrank.
+Cette tribu comprend six genres regroupant 154 espèces.
+Deux genres sont relativement importants, il s'agit de Melica (selon les décomptes de nombreuses flores régionales) avec environ 80 à 90 espèces, et Glyceria avec environ 55 espèces.
 Deux autres genres, Lycochloa et Schizachne, sont monotypiques.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Soreng et al.[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Soreng et al. :
 Glyceria,
 Lycochloa,
 Melica,
